--- a/biology/Botanique/Interflora/Interflora.xlsx
+++ b/biology/Botanique/Interflora/Interflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Interflora est une marque commerciale qui désigne un service de transmission florale inventé en 1908 en Allemagne.
@@ -515,9 +527,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1908, un artisan fleuriste de Berlin, Max Hübner (1866-1946) importe des fleurs de la Riviera méditerranéenne pour les expédier vers la Russie des Tsars. Comme les fleurs supportent mal le voyage, il a l’idée d’établir des relations commerciales avec des confrères implantés directement sur les lieux de livraison et constitue un réseau de 98 fleuristes qui se transmettent des commandes de fleurs par télégraphe[3].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1908, un artisan fleuriste de Berlin, Max Hübner (1866-1946) importe des fleurs de la Riviera méditerranéenne pour les expédier vers la Russie des Tsars. Comme les fleurs supportent mal le voyage, il a l’idée d’établir des relations commerciales avec des confrères implantés directement sur les lieux de livraison et constitue un réseau de 98 fleuristes qui se transmettent des commandes de fleurs par télégraphe.  
 En 1910, les Américains s’intéressent au concept et fondent leur propre service de transmission florale aux États-Unis : le Florists’ Telegraph Delivery (FTD), rebaptisé Florist’s Transworld Delivery en 1925. Le FTD affiche rapidement des ambitions internationales et crée une unité britannique, la British Unit en 1923 qui regroupe des fleuristes anglais et écossais. Elle est rebaptisée Interflora British Group en 1953.
 De son côté, Max Hübner s’émancipe sur le marché européen et fonde Fleurop en 1927. Fleurop compte au départ 3 064 fleuristes répartis en Allemagne, en Suisse, en Autriche, aux Pays-Bas et en Belgique. Marié à la Suissesse Klara Krämer avec qui il tient un magasin de fleurs, Max Hübner installe le siège social de Fleurop à Zurich (Suisse). Il en est également le premier Président.
 Après la Seconde Guerre mondiale, la nécessité de redynamiser les activités commerciales aboutit à la création d’Interflora Inc. en 1946. Il s’agit de la fusion de Fleurop (Europe continentale), Florist’s Transworld Delivery (Amérique du Nord et du Sud, Philippines, Taïwan, Corée et Japon) et de la British Unit (Royaume Uni, Irlande, Australie, Nouvelle-Zélande, Indonésie, Chine et Afrique du Sud). Le mot Interflora provient de « International florist association ».
@@ -553,9 +567,11 @@
           <t>Coupe du monde des fleuristes Interflora</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Coupe du monde des fleuristes[4] est une compétition d’art floral internationale organisée par fleurop-Interflora. La Fleurop-Interflora World Cup se déroule tous les deux à cinq ans et oppose des artisans fleuristes primés dans les concours nationaux.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Coupe du monde des fleuristes est une compétition d’art floral internationale organisée par fleurop-Interflora. La Fleurop-Interflora World Cup se déroule tous les deux à cinq ans et oppose des artisans fleuristes primés dans les concours nationaux.
 </t>
         </is>
       </c>
